--- a/APPdata_FGpeenya/Thresholds_FG.xlsx
+++ b/APPdata_FGpeenya/Thresholds_FG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPdata_FGpeenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83DCC4-4A0A-4FEA-BF77-9E4D3199FF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58045015-029E-4CFA-BE04-C591C3420377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9912" xr2:uid="{FF1C3437-CD9C-427B-9E1D-11DA42C7719A}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{FF1C3437-CD9C-427B-9E1D-11DA42C7719A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -65,27 +65,6 @@
     <t>Warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry off oven Blower FDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry off oven Blower FNDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry off oven Blower MDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG Primary Booth Exhaust Fan FDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG Primary Booth Exhaust Fan FNDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG Primary Booth Exhaust Fan MDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG Topcoat Booth Exhaust Fan FDE </t>
-  </si>
-  <si>
     <t>FG Topcoat Booth Exhaust Fan FNDE</t>
   </si>
   <si>
@@ -126,6 +105,27 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>Dry off oven Blower FDE</t>
+  </si>
+  <si>
+    <t>Dry off oven Blower FNDE</t>
+  </si>
+  <si>
+    <t>Dry off oven Blower MDE</t>
+  </si>
+  <si>
+    <t>FG Primary Booth Exhaust Fan FDE</t>
+  </si>
+  <si>
+    <t>FG Primary Booth Exhaust Fan FNDE</t>
+  </si>
+  <si>
+    <t>FG Topcoat Booth Exhaust Fan FDE</t>
+  </si>
+  <si>
+    <t>FG Primary Booth Exhaust Fan MDE</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61FAB3-C691-4C73-AAAE-3776BD69182B}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -573,18 +573,18 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -706,10 +706,10 @@
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1131,10 +1131,10 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1506,10 +1506,10 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>6</v>
